--- a/data/trans_dic/P16A98-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A98-Estudios-trans_dic.xlsx
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,79</t>
+          <t>0,21; 1,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,89</t>
+          <t>5,13; 11,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,03</t>
+          <t>0,71; 4,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,83</t>
+          <t>0,33; 2,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,38; 24,85</t>
+          <t>14,21; 24,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 9,5</t>
+          <t>1,3; 8,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,73</t>
+          <t>0,29; 1,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,12; 16,35</t>
+          <t>10,09; 15,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,48</t>
+          <t>1,22; 4,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,89</t>
+          <t>0,61; 1,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,19</t>
+          <t>0,21; 1,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0,0; 0,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,76</t>
+          <t>1,2; 3,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,01</t>
+          <t>0,51; 2,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,24</t>
+          <t>0,0; 0,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,19</t>
+          <t>1,02; 2,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,27</t>
+          <t>0,43; 1,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,18</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,91</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,09</t>
+          <t>0,22; 2,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,65</t>
+          <t>0,17; 1,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,37</t>
+          <t>0,04; 0,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,02</t>
+          <t>1,57; 2,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,28</t>
+          <t>0,43; 1,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,77</t>
+          <t>0,08; 0,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,3</t>
+          <t>4,37; 7,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,07</t>
+          <t>0,7; 2,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,44</t>
+          <t>0,08; 0,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 4,45</t>
+          <t>2,93; 4,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,42</t>
+          <t>0,64; 1,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P16A98-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A98-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,8</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,54</t>
+          <t>4,97; 11,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,1</t>
+          <t>0,66; 3,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,81</t>
+          <t>0,34; 2,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,21; 24,47</t>
+          <t>14,39; 25,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 8,69</t>
+          <t>0,8; 8,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,69</t>
+          <t>0,29; 1,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,09; 15,94</t>
+          <t>10,19; 16,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,65</t>
+          <t>1,15; 4,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,84</t>
+          <t>0,56; 1,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,18</t>
+          <t>0,21; 1,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,78</t>
+          <t>0,0; 0,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,73</t>
+          <t>1,16; 3,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,05</t>
+          <t>0,51; 2,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,31</t>
+          <t>0,0; 0,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,24</t>
+          <t>0,96; 2,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,24</t>
+          <t>0,43; 1,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,35</t>
+          <t>0,0; 3,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,16</t>
+          <t>0,22; 2,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,47</t>
+          <t>0,17; 1,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,42</t>
+          <t>0,04; 0,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,99</t>
+          <t>1,57; 3,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,26</t>
+          <t>0,4; 1,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,75</t>
+          <t>0,08; 0,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,25</t>
+          <t>4,36; 7,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,02</t>
+          <t>0,72; 2,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,43</t>
+          <t>0,08; 0,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 4,44</t>
+          <t>2,88; 4,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,4</t>
+          <t>0,64; 1,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
